--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1205.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1205.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7454443318119838</v>
+        <v>1.168335437774658</v>
       </c>
       <c r="B1">
-        <v>1.389479730958898</v>
+        <v>2.358563899993896</v>
       </c>
       <c r="C1">
-        <v>5.092992404429887</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.172677495603186</v>
+        <v>2.364940404891968</v>
       </c>
       <c r="E1">
-        <v>1.530394188731828</v>
+        <v>1.234638094902039</v>
       </c>
     </row>
   </sheetData>
